--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668E6F1-A5EF-414D-9DF8-C5FA1EE7860D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56AFF9-181B-453D-A288-631A74D8BB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="195" windowWidth="19695" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>to_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>address</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>#{name}</t>
@@ -78,6 +79,88 @@
   </si>
   <si>
     <t>JOJO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#{title}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第一封</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮件标题</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>第二封</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮件标题</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陈女士</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager@fujismart.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>测试邮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标题</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月17号的主题</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>程女士</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -138,10 +221,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -423,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18.75"/>
@@ -435,7 +519,7 @@
     <col min="3" max="3" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +541,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -480,8 +567,11 @@
       <c r="G2">
         <v>15</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -503,14 +593,49 @@
       <c r="G3">
         <v>16</v>
       </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{681AB2AE-7F90-41D2-9BD5-CC9C3F7D2E24}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{8EB35A73-2DFB-47DB-975B-85561F4465DF}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E20F324A-8A04-4791-A390-FB87986F4ECD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56AFF9-181B-453D-A288-631A74D8BB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5085D-4A75-4E4A-A9B9-BF124A5A0552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="19695" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>to_name</t>
     <phoneticPr fontId="1"/>
@@ -161,6 +161,22 @@
   </si>
   <si>
     <t>程女士</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attachment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test.jpeg,test.jpeg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,19 +523,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="3" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,22 +546,25 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -555,23 +574,26 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1995</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -581,23 +603,26 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2019</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -608,25 +633,29 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2019</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5085D-4A75-4E4A-A9B9-BF124A5A0552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7074D6-498C-4A50-98BF-DCB78ECF3505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="19695" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>to_name</t>
     <phoneticPr fontId="1"/>
@@ -67,14 +67,6 @@
   </si>
   <si>
     <t>email_subject</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>邮件主题1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>邮件主题2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -156,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12月17号的主题</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>程女士</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,16 +156,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test.jpeg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test.jpeg,test.jpeg</t>
-    <phoneticPr fontId="1"/>
+    <t>交通費詳細1912.xls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通費詳細1912.xls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1封测试邮件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2封测试邮件</t>
+  </si>
+  <si>
+    <t>第3封测试邮件</t>
   </si>
 </sst>
 </file>
@@ -526,7 +520,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18.75"/>
@@ -546,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -561,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -572,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -590,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -601,13 +595,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -619,24 +613,24 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -648,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9">
